--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Product ID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Last Updated</t>
+  </si>
+  <si>
+    <t>Last Sync</t>
   </si>
   <si>
     <t>Status</t>
@@ -514,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,25 +551,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>1.1</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1.1</v>
@@ -574,57 +580,63 @@
       <c r="H2" s="3">
         <v>45837.61450164352</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="3">
+        <v>45839.87198280355</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>59.95</v>
       </c>
       <c r="G3">
-        <v>1.1</v>
+        <v>59.95</v>
       </c>
       <c r="H3" s="3">
-        <v>45837.76392357639</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>45839.87169788194</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45839.87198791334</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -632,25 +644,28 @@
       <c r="H4" s="3">
         <v>45837.73837027778</v>
       </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="3">
+        <v>45839.87199389234</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>10.81</v>
@@ -659,27 +674,30 @@
         <v>10.81</v>
       </c>
       <c r="H5" s="3">
-        <v>45837.7747122338</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>45839.87171612269</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45839.87200306624</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>15.3</v>
@@ -688,27 +706,30 @@
         <v>15.3</v>
       </c>
       <c r="H6" s="3">
-        <v>45837.77649659722</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>45839.87172320602</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45839.87202222074</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>14.7</v>
@@ -717,27 +738,30 @@
         <v>14.7</v>
       </c>
       <c r="H7" s="3">
-        <v>45837.77968767361</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>45839.87172799768</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45839.87202748208</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>59.95</v>
@@ -746,27 +770,30 @@
         <v>59.95</v>
       </c>
       <c r="H8" s="3">
-        <v>45837.78748328704</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>45839.87173313658</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45839.87203406195</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>69.95</v>
@@ -775,27 +802,30 @@
         <v>69.95</v>
       </c>
       <c r="H9" s="3">
-        <v>45837.78817340278</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>45839.87174149306</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45839.87204103354</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>24.71</v>
@@ -804,27 +834,30 @@
         <v>24.71</v>
       </c>
       <c r="H10" s="3">
-        <v>45837.78920467592</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>45839.87176565972</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45839.87206075372</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>36.95</v>
@@ -833,27 +866,30 @@
         <v>36.95</v>
       </c>
       <c r="H11" s="3">
-        <v>45837.79006944445</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>45839.87177048611</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45839.87206598765</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -862,10 +898,13 @@
         <v>14</v>
       </c>
       <c r="H12" s="3">
-        <v>45837.79153056451</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
+        <v>45839.87177559028</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45839.87207232788</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -581,7 +581,7 @@
         <v>45837.61450164352</v>
       </c>
       <c r="I2" s="3">
-        <v>45839.87198280355</v>
+        <v>45839.89998290454</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -610,10 +610,10 @@
         <v>59.95</v>
       </c>
       <c r="H3" s="3">
-        <v>45839.87169788194</v>
+        <v>45839.89998793266</v>
       </c>
       <c r="I3" s="3">
-        <v>45839.87198791334</v>
+        <v>45839.89998789738</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -645,7 +645,7 @@
         <v>45837.73837027778</v>
       </c>
       <c r="I4" s="3">
-        <v>45839.87199389234</v>
+        <v>45839.89999430316</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -674,10 +674,10 @@
         <v>10.81</v>
       </c>
       <c r="H5" s="3">
-        <v>45839.87171612269</v>
+        <v>45839.90000730645</v>
       </c>
       <c r="I5" s="3">
-        <v>45839.87200306624</v>
+        <v>45839.90000730645</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -706,10 +706,10 @@
         <v>15.3</v>
       </c>
       <c r="H6" s="3">
-        <v>45839.87172320602</v>
+        <v>45839.900020181</v>
       </c>
       <c r="I6" s="3">
-        <v>45839.87202222074</v>
+        <v>45839.900020181</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
@@ -738,10 +738,10 @@
         <v>14.7</v>
       </c>
       <c r="H7" s="3">
-        <v>45839.87172799768</v>
+        <v>45839.9000259463</v>
       </c>
       <c r="I7" s="3">
-        <v>45839.87202748208</v>
+        <v>45839.90002593482</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -770,10 +770,10 @@
         <v>59.95</v>
       </c>
       <c r="H8" s="3">
-        <v>45839.87173313658</v>
+        <v>45839.90003077036</v>
       </c>
       <c r="I8" s="3">
-        <v>45839.87203406195</v>
+        <v>45839.90003077036</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
@@ -802,10 +802,10 @@
         <v>69.95</v>
       </c>
       <c r="H9" s="3">
-        <v>45839.87174149306</v>
+        <v>45839.90003739172</v>
       </c>
       <c r="I9" s="3">
-        <v>45839.87204103354</v>
+        <v>45839.90003739172</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -834,10 +834,10 @@
         <v>24.71</v>
       </c>
       <c r="H10" s="3">
-        <v>45839.87176565972</v>
+        <v>45839.90005757907</v>
       </c>
       <c r="I10" s="3">
-        <v>45839.87206075372</v>
+        <v>45839.90005757907</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -866,10 +866,10 @@
         <v>36.95</v>
       </c>
       <c r="H11" s="3">
-        <v>45839.87177048611</v>
+        <v>45839.90006235048</v>
       </c>
       <c r="I11" s="3">
-        <v>45839.87206598765</v>
+        <v>45839.90006235048</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -898,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="H12" s="3">
-        <v>45839.87177559028</v>
+        <v>45839.90007007495</v>
       </c>
       <c r="I12" s="3">
-        <v>45839.87207232788</v>
+        <v>45839.90007007495</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F447EC-B169-42DC-B04B-8153E53195DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Product ID</t>
   </si>
@@ -49,110 +55,119 @@
     <t>Excel T-Shirt</t>
   </si>
   <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005007225599702.html?spm=a2g0o.productlist.main.3.15a23DIy3DIy4T&amp;algo_pvid=fba44e9d-291f-4b97-a2cc-b0005738eb25&amp;algo_exp_id=fba44e9d-291f-4b97-a2cc-b0005738eb25-2&amp;pdp_ext_f=%7B%22order%22%3A%22-1%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21JMD%211731.49%211644.92%21%21%2177.00%2173.15%21%40212e520d17512147891243712e8891%2112000039874227319%21sea%21JM%210%21ABX&amp;curPageLogUid=GgzlvujlAVzN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>WooCommerce</t>
+  </si>
+  <si>
+    <t>https://jococups.com/product/active-flask-17oz/</t>
+  </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
     <t>usb</t>
   </si>
   <si>
+    <t>Cables</t>
+  </si>
+  <si>
     <t>something</t>
   </si>
   <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Wholesale-Press-on-Diy-Cluster-Lashes_1601375253518.html?spm=a27aq.29856418.9972862400.53.41cd12b2LQbtll</t>
+  </si>
+  <si>
     <t>New Designs Widely Used Classic Casual Solid-Color Men'S Jacket Spring Autumn Fitted Suit Jacket</t>
   </si>
   <si>
+    <t>men's suit</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/New-Designs-Widely-Used-Classic-Casual_1601442208961.html?spm=a2700.galleryofferlist.normal_offer.d_title.77fc13a0V0oyA8</t>
+  </si>
+  <si>
     <t>Hardware Lane 6oz</t>
   </si>
   <si>
+    <t>Glassware</t>
+  </si>
+  <si>
+    <t>Spocket</t>
+  </si>
+  <si>
+    <t>https://jococups.com/product/hardware-lane-6oz-2-pack/</t>
+  </si>
+  <si>
     <t>Active Flask 17oz</t>
   </si>
   <si>
     <t>Flask – Velvet Grip 20oz</t>
   </si>
   <si>
+    <t>Bottles</t>
+  </si>
+  <si>
+    <t>http://jococups.com/product/20oz-flask-velvet-grip/</t>
+  </si>
+  <si>
     <t>Joco Cup 8oz</t>
   </si>
   <si>
+    <t>Cups</t>
+  </si>
+  <si>
+    <t>https://jococups.com/product/8oz-joco-cup/?attribute_pa_color=deep-teal-seaglass</t>
+  </si>
+  <si>
     <t>Hardware Lane 12oz</t>
   </si>
   <si>
+    <t>https://jococups.com/product/hardware-lane-12oz-2-pack/</t>
+  </si>
+  <si>
     <t>Velvet Grip Straw 7″</t>
   </si>
   <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Cables</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>men's suit</t>
-  </si>
-  <si>
-    <t>Glassware</t>
-  </si>
-  <si>
-    <t>Bottles</t>
-  </si>
-  <si>
-    <t>Cups</t>
-  </si>
-  <si>
     <t>Straw</t>
   </si>
   <si>
-    <t>AliExpress</t>
-  </si>
-  <si>
-    <t>WooCommerce</t>
-  </si>
-  <si>
-    <t>Spocket</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005007225599702.html?spm=a2g0o.productlist.main.3.15a23DIy3DIy4T&amp;algo_pvid=fba44e9d-291f-4b97-a2cc-b0005738eb25&amp;algo_exp_id=fba44e9d-291f-4b97-a2cc-b0005738eb25-2&amp;pdp_ext_f=%7B%22order%22%3A%22-1%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21JMD%211731.49%211644.92%21%21%2177.00%2173.15%21%40212e520d17512147891243712e8891%2112000039874227319%21sea%21JM%210%21ABX&amp;curPageLogUid=GgzlvujlAVzN&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
-  </si>
-  <si>
-    <t>https://jococups.com/product/active-flask-17oz/</t>
-  </si>
-  <si>
-    <t>https://www.alibaba.com/product-detail/Wholesale-Press-on-Diy-Cluster-Lashes_1601375253518.html?spm=a27aq.29856418.9972862400.53.41cd12b2LQbtll</t>
-  </si>
-  <si>
-    <t>https://www.alibaba.com/product-detail/New-Designs-Widely-Used-Classic-Casual_1601442208961.html?spm=a2700.galleryofferlist.normal_offer.d_title.77fc13a0V0oyA8</t>
-  </si>
-  <si>
-    <t>https://jococups.com/product/hardware-lane-6oz-2-pack/</t>
-  </si>
-  <si>
-    <t>http://jococups.com/product/20oz-flask-velvet-grip/</t>
-  </si>
-  <si>
-    <t>https://jococups.com/product/8oz-joco-cup/?attribute_pa_color=deep-teal-seaglass</t>
-  </si>
-  <si>
-    <t>https://jococups.com/product/hardware-lane-12oz-2-pack/</t>
-  </si>
-  <si>
     <t>https://jococups.com/product/velvet-grip-straw-7/</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>UPDATED</t>
+    <t>AMD Ryzen 5 7600X - Zen 4 6-Core 4.7 GHz - Socket AM5 - 105W Desktop Processor (100-100000593WOF)</t>
+  </si>
+  <si>
+    <t>AutoDSNewegg</t>
+  </si>
+  <si>
+    <t>https://www.newegg.com/amd-ryzen-5-7600x-ryzen-5-7000-series-raphael-zen-4-socket-am5/p/N82E16819113770</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,17 +178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,27 +213,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,14 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,31 +572,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2">
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45837.61450164352</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45839.89998290454</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45837.614501643518</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45840.109999803237</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3">
         <v>59.95</v>
@@ -609,31 +618,31 @@
       <c r="G3">
         <v>59.95</v>
       </c>
-      <c r="H3" s="3">
-        <v>45839.89998793266</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45839.89998789738</v>
+      <c r="H3" s="2">
+        <v>45840.110006817129</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45840.110006817129</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -641,31 +650,31 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
-        <v>45837.73837027778</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45839.89999430316</v>
+      <c r="H4" s="2">
+        <v>45837.738370277781</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45840.11000896991</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F5">
         <v>10.81</v>
@@ -673,31 +682,31 @@
       <c r="G5">
         <v>10.81</v>
       </c>
-      <c r="H5" s="3">
-        <v>45839.90000730645</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45839.90000730645</v>
+      <c r="H5" s="2">
+        <v>45839.871716122689</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45840.110013680547</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
       <c r="F6">
         <v>15.3</v>
@@ -705,31 +714,31 @@
       <c r="G6">
         <v>15.3</v>
       </c>
-      <c r="H6" s="3">
-        <v>45839.900020181</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45839.900020181</v>
+      <c r="H6" s="2">
+        <v>45839.871723206023</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45840.110015520833</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
       <c r="F7">
         <v>14.7</v>
@@ -737,31 +746,31 @@
       <c r="G7">
         <v>14.7</v>
       </c>
-      <c r="H7" s="3">
-        <v>45839.9000259463</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45839.90002593482</v>
+      <c r="H7" s="2">
+        <v>45840.110020798609</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45840.110020798609</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
         <v>59.95</v>
@@ -769,31 +778,31 @@
       <c r="G8">
         <v>59.95</v>
       </c>
-      <c r="H8" s="3">
-        <v>45839.90003077036</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45839.90003077036</v>
+      <c r="H8" s="2">
+        <v>45840.110026550923</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45840.110026550923</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
       <c r="F9">
         <v>69.95</v>
@@ -801,31 +810,31 @@
       <c r="G9">
         <v>69.95</v>
       </c>
-      <c r="H9" s="3">
-        <v>45839.90003739172</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45839.90003739172</v>
+      <c r="H9" s="2">
+        <v>45840.110034583333</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45840.110034571757</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
       <c r="F10">
         <v>24.71</v>
@@ -833,63 +842,63 @@
       <c r="G10">
         <v>24.71</v>
       </c>
-      <c r="H10" s="3">
-        <v>45839.90005757907</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45839.90005757907</v>
+      <c r="H10" s="2">
+        <v>45839.871765659722</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45840.11004162037</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="G11">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45840.110047256952</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45840.110047256952</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>36.95</v>
-      </c>
-      <c r="G11">
-        <v>36.95</v>
-      </c>
-      <c r="H11" s="3">
-        <v>45839.90006235048</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45839.90006235048</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -897,30 +906,46 @@
       <c r="G12">
         <v>14</v>
       </c>
-      <c r="H12" s="3">
-        <v>45839.90007007495</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45839.90007007495</v>
+      <c r="H12" s="2">
+        <v>45840.110051932868</v>
+      </c>
+      <c r="I12" s="2">
+        <v>45840.1100519213</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45840.113303090278</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>